--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>101.87</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -558,7 +558,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,6 +16,7 @@
     <sheet name="definitions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Route_ID</t>
   </si>
@@ -474,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,19 +528,893 @@
         <v>101.87</v>
       </c>
       <c r="D2">
-        <v>200000</v>
+        <v>65000</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>101.87</v>
+      </c>
+      <c r="C3">
+        <v>103.17</v>
+      </c>
+      <c r="D3">
+        <v>85000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>103.17</v>
+      </c>
+      <c r="C4">
+        <v>103.42</v>
+      </c>
+      <c r="D4">
+        <v>108000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>103.42</v>
+      </c>
+      <c r="C5">
+        <v>104.81</v>
+      </c>
+      <c r="D5">
+        <v>101000</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>104.81</v>
+      </c>
+      <c r="C6">
+        <v>105.63</v>
+      </c>
+      <c r="D6">
+        <v>144000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>105.63</v>
+      </c>
+      <c r="C7">
+        <v>106.23</v>
+      </c>
+      <c r="D7">
+        <v>123000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>106.23</v>
+      </c>
+      <c r="C8">
+        <v>107.09</v>
+      </c>
+      <c r="D8">
+        <v>143000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>107.09</v>
+      </c>
+      <c r="C9">
+        <v>107.74</v>
+      </c>
+      <c r="D9">
+        <v>124000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>107.74</v>
+      </c>
+      <c r="C10">
+        <v>108.46</v>
+      </c>
+      <c r="D10">
+        <v>135000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>108.46</v>
+      </c>
+      <c r="C11">
+        <v>108.94</v>
+      </c>
+      <c r="D11">
+        <v>116000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>108.94</v>
+      </c>
+      <c r="C12">
+        <v>109.52</v>
+      </c>
+      <c r="D12">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>109.52</v>
+      </c>
+      <c r="C13">
+        <v>111.43</v>
+      </c>
+      <c r="D13">
+        <v>119000</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>111.43</v>
+      </c>
+      <c r="C14">
+        <v>112.43</v>
+      </c>
+      <c r="D14">
+        <v>89000</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>112.43</v>
+      </c>
+      <c r="C15">
+        <v>113.85</v>
+      </c>
+      <c r="D15">
+        <v>105000</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>113.85</v>
+      </c>
+      <c r="C16">
+        <v>114.65</v>
+      </c>
+      <c r="D16">
+        <v>101000</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>114.65</v>
+      </c>
+      <c r="C17">
+        <v>116.42</v>
+      </c>
+      <c r="D17">
+        <v>118000</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>116.42</v>
+      </c>
+      <c r="C18">
+        <v>117.25</v>
+      </c>
+      <c r="D18">
+        <v>118000</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>117.25</v>
+      </c>
+      <c r="C19">
+        <v>117.78</v>
+      </c>
+      <c r="D19">
+        <v>128000</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>117.78</v>
+      </c>
+      <c r="C20">
+        <v>118.4</v>
+      </c>
+      <c r="D20">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>118.4</v>
+      </c>
+      <c r="C21">
+        <v>118.67</v>
+      </c>
+      <c r="D21">
+        <v>129000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>118.67</v>
+      </c>
+      <c r="C22">
+        <v>119.38</v>
+      </c>
+      <c r="D22">
+        <v>116000</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>119.38</v>
+      </c>
+      <c r="C23">
+        <v>120.46</v>
+      </c>
+      <c r="D23">
+        <v>125000</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>120.46</v>
+      </c>
+      <c r="C24">
+        <v>121.4</v>
+      </c>
+      <c r="D24">
+        <v>116000</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>121.4</v>
+      </c>
+      <c r="C25">
+        <v>122.4</v>
+      </c>
+      <c r="D25">
+        <v>136000</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>122.4</v>
+      </c>
+      <c r="C26">
+        <v>123.09</v>
+      </c>
+      <c r="D26">
+        <v>124000</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>123.09</v>
+      </c>
+      <c r="C27">
+        <v>123.28</v>
+      </c>
+      <c r="D27">
+        <v>139000</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>123.28</v>
+      </c>
+      <c r="C28">
+        <v>123.94</v>
+      </c>
+      <c r="D28">
+        <v>135000</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>123.94</v>
+      </c>
+      <c r="C29">
+        <v>124.33</v>
+      </c>
+      <c r="D29">
+        <v>152000</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>124.33</v>
+      </c>
+      <c r="C30">
+        <v>125.09</v>
+      </c>
+      <c r="D30">
+        <v>137000</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>125.09</v>
+      </c>
+      <c r="C31">
+        <v>125.6</v>
+      </c>
+      <c r="D31">
+        <v>149000</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>125.6</v>
+      </c>
+      <c r="C32">
+        <v>126.2</v>
+      </c>
+      <c r="D32">
+        <v>132000</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>126.2</v>
+      </c>
+      <c r="C33">
+        <v>127.13</v>
+      </c>
+      <c r="D33">
+        <v>148000</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>127.13</v>
+      </c>
+      <c r="C34">
+        <v>128.06</v>
+      </c>
+      <c r="D34">
+        <v>110000</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>128.06</v>
+      </c>
+      <c r="C35">
+        <v>128.59</v>
+      </c>
+      <c r="D35">
+        <v>177000</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>128.59</v>
+      </c>
+      <c r="C36">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D36">
+        <v>169000</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="C37">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="D37">
+        <v>161000</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="C38">
+        <v>130.31</v>
+      </c>
+      <c r="D38">
+        <v>199000</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>130.31</v>
+      </c>
+      <c r="C39">
+        <v>131.22</v>
+      </c>
+      <c r="D39">
+        <v>180000</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>131.22</v>
+      </c>
+      <c r="C40">
+        <v>131.35</v>
+      </c>
+      <c r="D40">
+        <v>197000</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G40" sqref="A3:G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,16 +527,16 @@
         <v>101.87</v>
       </c>
       <c r="D2">
-        <v>65000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="925" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="parsed mile posts" sheetId="1" state="visible" r:id="rId2"/>
@@ -239,7 +239,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -285,25 +285,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100.93</v>
+        <v>9.96</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>101.87</v>
+        <v>10.56</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>65000</v>
+        <v>147000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>100.93</v>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Route_ID</t>
   </si>
@@ -236,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -302,8 +302,28 @@
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>100.93</v>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>177000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -325,7 +345,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A4:J5 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Route_ID</t>
   </si>
@@ -236,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:J5"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -285,7 +285,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>9.96</v>
+        <v>10.15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>10.56</v>
@@ -300,30 +300,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>177000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -345,7 +322,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A4:J5 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -238,8 +238,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -288,10 +288,10 @@
         <v>10.15</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>10.56</v>
+        <v>11.56</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>147000</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -300,7 +300,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -321,7 +321,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Route_ID</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>IS</t>
+  </si>
+  <si>
+    <t>Intersection with I90</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -236,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -302,6 +305,56 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -334,7 +387,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,58 +395,58 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Route_ID</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>IS</t>
-  </si>
-  <si>
-    <t>Intersection with I90</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -239,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -294,7 +291,7 @@
         <v>11.56</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -305,56 +302,6 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -387,7 +334,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,58 +342,58 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Route_ID</t>
   </si>
@@ -236,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -301,6 +301,75 @@
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/2017_MCM_Problem_C_Data2.xlsx
+++ b/Resource/2017_MCM_Problem_C_Data2.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodingPlace\projects\Cellular-Automaton-for-self-drive\Resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="925" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="925"/>
   </bookViews>
   <sheets>
-    <sheet name="parsed mile posts" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="definitions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="parsed mile posts" sheetId="1" r:id="rId1"/>
+    <sheet name="definitions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -93,12 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,27 +107,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,122 +130,359 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.85425101214575"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="13.42578125"/>
+    <col min="3" max="3" width="12.42578125"/>
+    <col min="4" max="4" width="8.85546875"/>
+    <col min="5" max="5" width="13" style="1"/>
+    <col min="6" max="6" width="11.140625"/>
+    <col min="7" max="7" width="9.28515625"/>
+    <col min="8" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -280,103 +508,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>10.15</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>11.56</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>120000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>10.15</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>11.56</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>120000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>13.42</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>13.78</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>141000</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>10.15</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>11.56</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>120000</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -384,32 +612,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.4291497975708"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85425101214575"/>
+    <col min="1" max="1" width="20.42578125" style="5"/>
+    <col min="2" max="2" width="96.42578125"/>
+    <col min="3" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -417,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -425,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -433,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -441,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -449,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -457,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -466,12 +691,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>